--- a/output/fit_clients/fit_round_120.xlsx
+++ b/output/fit_clients/fit_round_120.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2256330262.596687</v>
+        <v>1887243089.497984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07448160932162408</v>
+        <v>0.1102551805526221</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04048546889594886</v>
+        <v>0.04290506254242142</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1128165161.341151</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1736065266.001273</v>
+        <v>2517078982.418031</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1714686129858162</v>
+        <v>0.1410970282924492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04918840439987605</v>
+        <v>0.03757127756877284</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>868032632.1360915</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5207868141.233049</v>
+        <v>4749063805.341641</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1198276082123966</v>
+        <v>0.1116111796082159</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02654216264084769</v>
+        <v>0.0292531084952673</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>44</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2603934170.308914</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3435040115.770321</v>
+        <v>2721770917.885183</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07076132310161515</v>
+        <v>0.07839066007053568</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04092324117074325</v>
+        <v>0.03459812140529638</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1717520098.869966</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2295089763.020865</v>
+        <v>2136426246.633761</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1453172832762482</v>
+        <v>0.120542010006549</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05363856197353584</v>
+        <v>0.05094320028289562</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1147544879.114045</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2466425714.284617</v>
+        <v>1990939310.941617</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08527393421628984</v>
+        <v>0.06605486617109163</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03850264070858093</v>
+        <v>0.04152096080650508</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1233212873.320098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3299171694.471218</v>
+        <v>3475981192.413213</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1743825870846693</v>
+        <v>0.2116969536055187</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02722189086435517</v>
+        <v>0.02832985624503784</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>39</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1649585935.28022</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2177824561.902881</v>
+        <v>1424907890.773557</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1556064261178346</v>
+        <v>0.1586573938139387</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03048813724073651</v>
+        <v>0.02526841984267798</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1088912282.811762</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5830881209.459765</v>
+        <v>4971981363.653412</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1781684275337005</v>
+        <v>0.1326300145141502</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03764012115861114</v>
+        <v>0.05167328052411486</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>51</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2915440768.345571</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4269533018.715531</v>
+        <v>3044082932.869623</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1741118312290422</v>
+        <v>0.1269452489927188</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04263009260863089</v>
+        <v>0.03786158139961233</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>50</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2134766540.767231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2350496790.079646</v>
+        <v>3013225848.661363</v>
       </c>
       <c r="F12" t="n">
-        <v>0.133957949790193</v>
+        <v>0.174692086137606</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0486209513939122</v>
+        <v>0.0446817424858659</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>43</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1175248353.536797</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4224475405.232602</v>
+        <v>3290114643.454387</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06784658493394026</v>
+        <v>0.1007965402730768</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02143588798163674</v>
+        <v>0.02197424493186344</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>40</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2112237746.090379</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3330656514.476625</v>
+        <v>2977874172.265172</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1649856216418904</v>
+        <v>0.1354367069874447</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03795276006003535</v>
+        <v>0.03801079036798593</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>38</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1665328267.661615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1658639490.923874</v>
+        <v>1499200161.913543</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08192401453435909</v>
+        <v>0.0693502662181442</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04915575134569284</v>
+        <v>0.03763217437382761</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>829319866.8731782</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1773994106.427548</v>
+        <v>2396955082.376071</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09902768544932883</v>
+        <v>0.1006591292724613</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03190617687514456</v>
+        <v>0.04105728605709609</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18</v>
-      </c>
-      <c r="J16" t="n">
-        <v>886997148.8471985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4333055492.800892</v>
+        <v>3390203434.940745</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1429943392435488</v>
+        <v>0.1373512441697159</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0515728083421266</v>
+        <v>0.05025810263389732</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>35</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2166527764.475327</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3065706275.528331</v>
+        <v>2750015408.32366</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1362223191196232</v>
+        <v>0.1619523313475795</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03203951710111579</v>
+        <v>0.03425873306197593</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>39</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1532853163.263468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1136238216.819998</v>
+        <v>1043987526.622973</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1788668815462152</v>
+        <v>0.1638620711813502</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01962944863713754</v>
+        <v>0.02715168218557847</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>568119170.7896147</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2178158859.059855</v>
+        <v>2353101008.826483</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1590697416327152</v>
+        <v>0.118476265515576</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03015093652312955</v>
+        <v>0.02490711471826938</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1089079436.82832</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2210281568.710708</v>
+        <v>2328229669.855378</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06383182502065321</v>
+        <v>0.09157618553889588</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04165504290752919</v>
+        <v>0.04080701744255872</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1105140800.110882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3278699686.855011</v>
+        <v>3336105325.971004</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1165517121738541</v>
+        <v>0.1035723580062137</v>
       </c>
       <c r="G22" t="n">
-        <v>0.038450023232745</v>
+        <v>0.03884181035750937</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>33</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1639349888.216766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1168765132.824553</v>
+        <v>1424498625.915643</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1698921881169664</v>
+        <v>0.172370590249175</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03654193608557429</v>
+        <v>0.03325230882566189</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>584382608.1040337</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2898273333.413796</v>
+        <v>2575926928.24191</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1042876117365566</v>
+        <v>0.1390631325138024</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02959734454524625</v>
+        <v>0.03180171261826809</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>35</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1449136708.730834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1098335617.668904</v>
+        <v>962350643.8616005</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1225614963498921</v>
+        <v>0.115317336804474</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02140968048853837</v>
+        <v>0.02049291122469494</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>549167850.1384066</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1223572734.010161</v>
+        <v>980609563.9351631</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09977655910595105</v>
+        <v>0.1074563294471776</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03386887760160619</v>
+        <v>0.02511386634717036</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>611786393.7615683</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4320763624.012797</v>
+        <v>3523434827.826246</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1177457256691207</v>
+        <v>0.1190131154385652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02183456978980999</v>
+        <v>0.01912341052060891</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>28</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2160381806.174334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2468156547.427695</v>
+        <v>3479066199.439437</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1138771591266836</v>
+        <v>0.0973589375451305</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04203814747215685</v>
+        <v>0.03714194175293704</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>38</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1234078238.74476</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4251287726.351789</v>
+        <v>5679917342.072863</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0916817549055127</v>
+        <v>0.1161454240006928</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04284034839187637</v>
+        <v>0.04397180281070623</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>56</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2125643862.609792</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1608790584.646858</v>
+        <v>1737024904.757346</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1096479773627888</v>
+        <v>0.08946688487523609</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02910235396806947</v>
+        <v>0.03800911850272299</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>804395285.1765586</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1007864042.821922</v>
+        <v>1311296270.860523</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07946576828331769</v>
+        <v>0.0686681252445699</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04382278268150092</v>
+        <v>0.0507724564021089</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>503932018.0476907</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1763632298.230591</v>
+        <v>1879326728.746332</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09891865024606206</v>
+        <v>0.1061886087580651</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03155517008570953</v>
+        <v>0.02486825425759008</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>881816272.0204177</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2106431146.976242</v>
+        <v>2834121496.428444</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1298914551455426</v>
+        <v>0.170538542244428</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06059816068091438</v>
+        <v>0.04643700902693542</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>35</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1053215645.164356</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1189869400.945733</v>
+        <v>1209781600.541214</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08764509479896203</v>
+        <v>0.07966273550206958</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02536249938869866</v>
+        <v>0.02523972471249139</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>594934707.1398869</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1210427242.182609</v>
+        <v>1025068487.565097</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1151816189301898</v>
+        <v>0.0841213969620461</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03377420293528827</v>
+        <v>0.02846292761252126</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>605213593.4716725</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3108526733.991587</v>
+        <v>2866924986.830781</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1300668052842151</v>
+        <v>0.1793765884957787</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02011751570964471</v>
+        <v>0.02328515955661509</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>30</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1554263340.164505</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2530228137.229132</v>
+        <v>1979377651.8826</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1055648888767571</v>
+        <v>0.1018050045484798</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02932402167258415</v>
+        <v>0.03129764094158793</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>32</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1265114168.78587</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1983595468.207456</v>
+        <v>2178527515.172408</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1094327587735046</v>
+        <v>0.0767594659577107</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03753015984495751</v>
+        <v>0.03279957287193582</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>991797714.9937966</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1497095440.72027</v>
+        <v>1639574718.139143</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1250986289460643</v>
+        <v>0.1857419500500185</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03137428496463791</v>
+        <v>0.02563141845682023</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>748547791.1951414</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1117098283.394227</v>
+        <v>1647024458.701964</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1453253230856982</v>
+        <v>0.1415325083413732</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03757505811631095</v>
+        <v>0.05811672857744136</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>558549203.6744227</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2622556000.863571</v>
+        <v>2319833700.735025</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1400962841469438</v>
+        <v>0.1558084822114382</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03038702321381333</v>
+        <v>0.03825610178946223</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>29</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1311278013.691996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4119017574.703611</v>
+        <v>3146632098.619662</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09731042948110545</v>
+        <v>0.1244987291819004</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03455193760517327</v>
+        <v>0.02861549205541839</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2059508824.783554</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1982294592.276018</v>
+        <v>1879007528.440872</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1789748758818528</v>
+        <v>0.1887090603158181</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01612392090436359</v>
+        <v>0.01638706485964994</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>38</v>
-      </c>
-      <c r="J43" t="n">
-        <v>991147396.8188025</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1579357706.749681</v>
+        <v>1462050984.594581</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09737832961661945</v>
+        <v>0.07850700229417099</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02580765848385864</v>
+        <v>0.03272350988922812</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>789678875.7257947</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1938030999.035329</v>
+        <v>1824102324.774123</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1540527170377858</v>
+        <v>0.1473183306867942</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04532897114772706</v>
+        <v>0.05478370178934556</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>969015484.0746989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4966692828.727247</v>
+        <v>4712826484.333427</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1672601673377134</v>
+        <v>0.1781603842385243</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04274396779831493</v>
+        <v>0.05293621590505915</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>43</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2483346439.177197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3564243338.516398</v>
+        <v>5084804886.560349</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2030463162330308</v>
+        <v>0.1601752628202719</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05497783251819134</v>
+        <v>0.03592592000044861</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>32</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1782121643.636772</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3276645383.516196</v>
+        <v>3686758544.080765</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07695742969399134</v>
+        <v>0.06648445160777645</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0366595073082686</v>
+        <v>0.02421039962192683</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>42</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1638322768.131294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1930768853.776872</v>
+        <v>1265928558.560366</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1186865512498007</v>
+        <v>0.1612580974472743</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0428298779624279</v>
+        <v>0.03330144909470734</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>965384391.8650842</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3441905601.579727</v>
+        <v>4189516271.241353</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1509408891563699</v>
+        <v>0.1109264226201393</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05141547032370458</v>
+        <v>0.03554676306314296</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>41</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1720952829.124667</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>963774402.0850909</v>
+        <v>934252164.7546042</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1785027375627992</v>
+        <v>0.1184307405818019</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04826229766102865</v>
+        <v>0.04000149677411329</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>481887290.800204</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3199852781.053069</v>
+        <v>4100275553.88486</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09279417688176184</v>
+        <v>0.1182818039797093</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05318698238186677</v>
+        <v>0.04561486449565622</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>50</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1599926494.0462</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2952234717.220922</v>
+        <v>3474374201.5235</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2030430897750883</v>
+        <v>0.1595442736454755</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03308005749271177</v>
+        <v>0.02503332073916804</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>34</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1476117394.318396</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4578362078.112949</v>
+        <v>4652030052.232121</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1336562549248723</v>
+        <v>0.1157580581331743</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05225918454969226</v>
+        <v>0.051973580759968</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>40</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2289181148.461226</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3425522468.446414</v>
+        <v>3492706365.693295</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1639765640988308</v>
+        <v>0.188333908376283</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02532548673422892</v>
+        <v>0.03169804038434251</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1712761183.70981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1258287175.227892</v>
+        <v>1192288492.615487</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1482630110036093</v>
+        <v>0.1500330007951557</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04582117254047578</v>
+        <v>0.05765079852519928</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>629143665.6513608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4386288674.37291</v>
+        <v>3336922994.018218</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1710600235587758</v>
+        <v>0.1166828595690095</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01677403557818191</v>
+        <v>0.02676176439469984</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>38</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2193144457.930402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1519977659.146192</v>
+        <v>1421680433.97492</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1439813110199155</v>
+        <v>0.1426459319136227</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03026793692872365</v>
+        <v>0.0250222529065111</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>759988858.8326378</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5227947349.812225</v>
+        <v>3671863608.848248</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1261039546698852</v>
+        <v>0.09348293111526414</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03799575481329059</v>
+        <v>0.04184694018990388</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2613973591.584166</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3209343114.988216</v>
+        <v>2368999148.803252</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1482569666027452</v>
+        <v>0.1899588437159162</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03024465697834958</v>
+        <v>0.03191802336690718</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>37</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1604671649.735119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2744000703.104659</v>
+        <v>2179076913.912828</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1804359302600397</v>
+        <v>0.1774142432472793</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03134094563526955</v>
+        <v>0.03210665124904139</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>42</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1372000356.11086</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1966182719.30468</v>
+        <v>1304461435.203136</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1441221486756763</v>
+        <v>0.1477405204245058</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03503732963086532</v>
+        <v>0.03139657619094758</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>983091412.6097326</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3426317299.924741</v>
+        <v>5302019650.826502</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1018187925542689</v>
+        <v>0.06615491293384419</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02981288242716259</v>
+        <v>0.03812076630795253</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>34</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1713158737.881288</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4512853796.176602</v>
+        <v>5014593102.860929</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1180407107240296</v>
+        <v>0.1809539027637947</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02538189363376638</v>
+        <v>0.02432139359092686</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>37</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2256426969.958051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5778012427.232642</v>
+        <v>5456967454.140128</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1139267181506546</v>
+        <v>0.1351526401112119</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02579698147989716</v>
+        <v>0.0298830411774807</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>43</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2889006126.049369</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4710311783.791142</v>
+        <v>4126838292.374593</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1595811394307916</v>
+        <v>0.1291721571859824</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03325141122823049</v>
+        <v>0.04332932846639936</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>35</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2355155903.45977</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2554876337.276683</v>
+        <v>2179758140.907376</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08285007938144547</v>
+        <v>0.07406446091070633</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04650745658146888</v>
+        <v>0.04217072772709175</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>39</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1277438224.494241</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5837263023.223903</v>
+        <v>3960396724.101244</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1476773883497252</v>
+        <v>0.1231775178198589</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03438836334347462</v>
+        <v>0.04172407240145987</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>38</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2918631618.68307</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2364455122.844632</v>
+        <v>1848286737.831131</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1573159650983094</v>
+        <v>0.1327237077188731</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04434042075133389</v>
+        <v>0.04052358993058047</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1182227613.429391</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3123681841.36569</v>
+        <v>2890295512.723437</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08884800912183746</v>
+        <v>0.08108301998214433</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03765433286534668</v>
+        <v>0.04094603001124926</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>34</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1561840905.646129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3810590975.216733</v>
+        <v>5495399021.182474</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1543820928936687</v>
+        <v>0.1433587086110047</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02260975329699177</v>
+        <v>0.0282652118282375</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>44</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1905295504.45154</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2204090545.386641</v>
+        <v>1731739784.926894</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1044473358624297</v>
+        <v>0.08551494428504061</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03561433032003659</v>
+        <v>0.05062565951536695</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1102045186.079027</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2918070949.744065</v>
+        <v>3342450207.999217</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09262637213051694</v>
+        <v>0.06976446779681666</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04252404774561434</v>
+        <v>0.05231718178541855</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>46</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1459035478.312349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2539409646.840477</v>
+        <v>3617593292.424855</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1399152061825477</v>
+        <v>0.1654974466407045</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02340622757953253</v>
+        <v>0.03491729148645581</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>41</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1269704928.5337</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1679809360.667554</v>
+        <v>1640959164.634866</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1069754960149085</v>
+        <v>0.1254595327477634</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03667269256318591</v>
+        <v>0.02717795914812247</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>839904674.543978</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3815008228.988213</v>
+        <v>4809108474.557062</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09010237974984688</v>
+        <v>0.1077374749719345</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03120905751380381</v>
+        <v>0.02585442699517508</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>26</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1907504091.418337</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1983604378.374983</v>
+        <v>2012773104.483043</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1701063702807318</v>
+        <v>0.1362989138889424</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01946902318734468</v>
+        <v>0.02125863726377787</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>991802248.2007315</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4159381735.659167</v>
+        <v>4071816192.989722</v>
       </c>
       <c r="F78" t="n">
-        <v>0.122239834895236</v>
+        <v>0.08779295248970199</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0538418789854359</v>
+        <v>0.04886396664435752</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>42</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2079690822.112273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1289920132.307082</v>
+        <v>1207248797.101583</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1744225707531137</v>
+        <v>0.1644696223888595</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04077576127176118</v>
+        <v>0.02737543576372946</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>644960063.5576262</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5066350425.773209</v>
+        <v>3794213266.96613</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1108532139336124</v>
+        <v>0.1075029124634012</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03094699247700224</v>
+        <v>0.02966307164636438</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>25</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2533175265.327026</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3735124447.805356</v>
+        <v>4979191603.585553</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09678688746327374</v>
+        <v>0.104880940286255</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03184261490472259</v>
+        <v>0.02292984653275439</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1867562177.232964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4681622338.245863</v>
+        <v>3943125035.831043</v>
       </c>
       <c r="F82" t="n">
-        <v>0.194143963872666</v>
+        <v>0.1315551277850085</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02447283835521315</v>
+        <v>0.0254220216515516</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2340811170.799041</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2311212557.529853</v>
+        <v>2158260268.652764</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1227113326947292</v>
+        <v>0.1493873714756625</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03954194270703097</v>
+        <v>0.03792408851330439</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1155606302.790105</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2075863418.089567</v>
+        <v>2248441858.874543</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1121034264175907</v>
+        <v>0.1038587469846329</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0334801242334453</v>
+        <v>0.03850332082554885</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1037931702.889808</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2935485216.888745</v>
+        <v>3684316046.996878</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1788574852724835</v>
+        <v>0.1264120051011572</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03753938388300694</v>
+        <v>0.05465360888813262</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>46</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1467742661.432659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2312791524.838823</v>
+        <v>2722836979.844154</v>
       </c>
       <c r="F86" t="n">
-        <v>0.151039266504308</v>
+        <v>0.1463741710721302</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02267605454311599</v>
+        <v>0.02603467515761097</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1156395833.501965</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1020355971.217005</v>
+        <v>1384048006.029475</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1166506545250312</v>
+        <v>0.1211533152794032</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0363921824881848</v>
+        <v>0.04041974219941585</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>510177995.0887365</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2269729316.330454</v>
+        <v>2699929204.388801</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1350705291605673</v>
+        <v>0.1154734732301145</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03571251402589772</v>
+        <v>0.03942792790359376</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>48</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1134864616.3959</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2542807058.565923</v>
+        <v>2631356143.182305</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1112689496996629</v>
+        <v>0.1235795981640189</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03437317580489604</v>
+        <v>0.03750249244229086</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>41</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1271403600.848998</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1542386553.590394</v>
+        <v>2116620179.097522</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1292873139790838</v>
+        <v>0.1180311490880725</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03792217271896846</v>
+        <v>0.04066386154605589</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>771193263.2117225</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1437288991.857234</v>
+        <v>1996305536.192122</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1483412692228846</v>
+        <v>0.1239570108190567</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05742603179221997</v>
+        <v>0.05788128913467825</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>718644543.158893</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2821509184.605008</v>
+        <v>2890421607.377696</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06656448700434198</v>
+        <v>0.10547665818907</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02876757665401762</v>
+        <v>0.03785691509062707</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>27</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1410754600.481838</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3793207598.267261</v>
+        <v>3034898308.870432</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1243164916698489</v>
+        <v>0.1320054699165994</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03784597091504533</v>
+        <v>0.05454812548920897</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>36</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1896603813.07035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2129537054.293005</v>
+        <v>2401697864.607015</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1308011861446121</v>
+        <v>0.1524430084522846</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03949636809288172</v>
+        <v>0.03910186038817456</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1064768542.290103</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2368589854.113399</v>
+        <v>2701157564.66682</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1275388642156989</v>
+        <v>0.1013214827135701</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05122383738580152</v>
+        <v>0.04821799238122338</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>28</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1184294972.648479</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1725209558.656603</v>
+        <v>2244887140.352421</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09218506193856998</v>
+        <v>0.0916636791291081</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04684632453139959</v>
+        <v>0.02874187153892733</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>862604795.6062748</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4171379344.580256</v>
+        <v>3650972613.584939</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1584827040620733</v>
+        <v>0.1154954315556105</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02537754426765584</v>
+        <v>0.02026272384114757</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>38</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2085689742.403324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2818449429.031731</v>
+        <v>2468930163.515058</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1153922733561171</v>
+        <v>0.09818810767487145</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02889569095562821</v>
+        <v>0.02155892560636043</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>32</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1409224686.849837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2671050087.605141</v>
+        <v>3012724782.698972</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09477406153065963</v>
+        <v>0.1335827924650852</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03518062360462412</v>
+        <v>0.02863857744756513</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1335525005.848668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4344343437.408515</v>
+        <v>2909520103.360071</v>
       </c>
       <c r="F100" t="n">
-        <v>0.121970554355914</v>
+        <v>0.1566531232855183</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02753910944031831</v>
+        <v>0.02580687541334447</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>37</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2172171816.803117</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2802514783.737264</v>
+        <v>2805717983.992018</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1618763090911179</v>
+        <v>0.2110030027486536</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04057123427170222</v>
+        <v>0.04768423182579158</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>50</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1401257454.751341</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_120.xlsx
+++ b/output/fit_clients/fit_round_120.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1887243089.497984</v>
+        <v>2190162140.876245</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1102551805526221</v>
+        <v>0.0850737876598185</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04290506254242142</v>
+        <v>0.03740509694059806</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2517078982.418031</v>
+        <v>2558001710.092024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1410970282924492</v>
+        <v>0.1465021628373787</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03757127756877284</v>
+        <v>0.03426112631835054</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4749063805.341641</v>
+        <v>4250552540.961724</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1116111796082159</v>
+        <v>0.1537152138060955</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0292531084952673</v>
+        <v>0.02303860030463359</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2721770917.885183</v>
+        <v>3525890007.730562</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07839066007053568</v>
+        <v>0.1080143298624401</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03459812140529638</v>
+        <v>0.03421474865157177</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2136426246.633761</v>
+        <v>1965073281.599017</v>
       </c>
       <c r="F6" t="n">
-        <v>0.120542010006549</v>
+        <v>0.0948947389995573</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05094320028289562</v>
+        <v>0.03997012831268273</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1990939310.941617</v>
+        <v>2387198684.763818</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06605486617109163</v>
+        <v>0.07435448970106426</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04152096080650508</v>
+        <v>0.03330181617004003</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3475981192.413213</v>
+        <v>2674267930.020698</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2116969536055187</v>
+        <v>0.186248144272707</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02832985624503784</v>
+        <v>0.02244488415706546</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1424907890.773557</v>
+        <v>2206429127.623186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1586573938139387</v>
+        <v>0.1268762934093774</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02526841984267798</v>
+        <v>0.03710194177780593</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4971981363.653412</v>
+        <v>4861348756.078747</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1326300145141502</v>
+        <v>0.1754491343286761</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05167328052411486</v>
+        <v>0.05256925100852818</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3044082932.869623</v>
+        <v>3431368390.834036</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1269452489927188</v>
+        <v>0.1366842913801457</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03786158139961233</v>
+        <v>0.04986207047145199</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3013225848.661363</v>
+        <v>3276796754.977155</v>
       </c>
       <c r="F12" t="n">
-        <v>0.174692086137606</v>
+        <v>0.1427706240611777</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0446817424858659</v>
+        <v>0.03782994665053212</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3290114643.454387</v>
+        <v>4296713491.871525</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1007965402730768</v>
+        <v>0.09857688899035863</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02197424493186344</v>
+        <v>0.01917220305093736</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2977874172.265172</v>
+        <v>2774755945.207374</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1354367069874447</v>
+        <v>0.1717560318483304</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03801079036798593</v>
+        <v>0.02704261227011088</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1499200161.913543</v>
+        <v>1258084222.314328</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0693502662181442</v>
+        <v>0.102343711801383</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03763217437382761</v>
+        <v>0.03579447345253761</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2396955082.376071</v>
+        <v>2828603047.56029</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1006591292724613</v>
+        <v>0.07773862908131064</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04105728605709609</v>
+        <v>0.04241685060839545</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3390203434.940745</v>
+        <v>4458783464.650929</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1373512441697159</v>
+        <v>0.1667052524853377</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05025810263389732</v>
+        <v>0.04765425815135163</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2750015408.32366</v>
+        <v>3531826773.289766</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1619523313475795</v>
+        <v>0.1553034183793642</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03425873306197593</v>
+        <v>0.0244132858659993</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1043987526.622973</v>
+        <v>898302433.4480882</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1638620711813502</v>
+        <v>0.1863902614458789</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02715168218557847</v>
+        <v>0.0258221308972544</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2353101008.826483</v>
+        <v>2048753588.304284</v>
       </c>
       <c r="F20" t="n">
-        <v>0.118476265515576</v>
+        <v>0.1394524361675281</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02490711471826938</v>
+        <v>0.02790832303999434</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2328229669.855378</v>
+        <v>2025508125.381045</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09157618553889588</v>
+        <v>0.09253881417274484</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04080701744255872</v>
+        <v>0.04271540739302071</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3336105325.971004</v>
+        <v>2964125018.777183</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1035723580062137</v>
+        <v>0.09529908534752057</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03884181035750937</v>
+        <v>0.04009299805317233</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1424498625.915643</v>
+        <v>1126235670.9952</v>
       </c>
       <c r="F23" t="n">
-        <v>0.172370590249175</v>
+        <v>0.142977994907783</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03325230882566189</v>
+        <v>0.05338055263499237</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2575926928.24191</v>
+        <v>3204620174.931652</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1390631325138024</v>
+        <v>0.1198267926997015</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03180171261826809</v>
+        <v>0.03518645396521744</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>962350643.8616005</v>
+        <v>1432690539.633035</v>
       </c>
       <c r="F25" t="n">
-        <v>0.115317336804474</v>
+        <v>0.116184405202546</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02049291122469494</v>
+        <v>0.02863145809136141</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>980609563.9351631</v>
+        <v>1414571789.760766</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1074563294471776</v>
+        <v>0.1146170937849641</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02511386634717036</v>
+        <v>0.02528832642280109</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3523434827.826246</v>
+        <v>4007748739.462443</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1190131154385652</v>
+        <v>0.1576838667440709</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01912341052060891</v>
+        <v>0.01722956033901823</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3479066199.439437</v>
+        <v>3377190155.405297</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0973589375451305</v>
+        <v>0.1116541691522358</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03714194175293704</v>
+        <v>0.0497487174981296</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5679917342.072863</v>
+        <v>4145230821.984106</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1161454240006928</v>
+        <v>0.1104784247100737</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04397180281070623</v>
+        <v>0.04282959214594198</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1737024904.757346</v>
+        <v>1975292349.73911</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08946688487523609</v>
+        <v>0.1038228836447225</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03800911850272299</v>
+        <v>0.03169313006430171</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1311296270.860523</v>
+        <v>1497670849.045753</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0686681252445699</v>
+        <v>0.06928594058141671</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0507724564021089</v>
+        <v>0.05142296146008696</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1879326728.746332</v>
+        <v>1760032825.60305</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1061886087580651</v>
+        <v>0.08288837415803474</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02486825425759008</v>
+        <v>0.03688866255807367</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2834121496.428444</v>
+        <v>2257103616.291221</v>
       </c>
       <c r="F33" t="n">
-        <v>0.170538542244428</v>
+        <v>0.1797804578448948</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04643700902693542</v>
+        <v>0.05619129339708082</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1209781600.541214</v>
+        <v>1396100357.298058</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07966273550206958</v>
+        <v>0.07378136632206438</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02523972471249139</v>
+        <v>0.02425563019567148</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1025068487.565097</v>
+        <v>1322348223.97984</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0841213969620461</v>
+        <v>0.09290815909273019</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02846292761252126</v>
+        <v>0.03998950443761328</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2866924986.830781</v>
+        <v>3256556680.208027</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1793765884957787</v>
+        <v>0.124518211315114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02328515955661509</v>
+        <v>0.01947519594792978</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1979377651.8826</v>
+        <v>2183495246.9062</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1018050045484798</v>
+        <v>0.1010265456185777</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03129764094158793</v>
+        <v>0.03248387933924033</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2178527515.172408</v>
+        <v>1831646227.37364</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0767594659577107</v>
+        <v>0.07597552052310975</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03279957287193582</v>
+        <v>0.03941015643123977</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1639574718.139143</v>
+        <v>1762059582.791392</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1857419500500185</v>
+        <v>0.1758820449059754</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02563141845682023</v>
+        <v>0.03217353304199184</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1647024458.701964</v>
+        <v>1503212559.65282</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1415325083413732</v>
+        <v>0.1367651746592909</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05811672857744136</v>
+        <v>0.05371275025398516</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2319833700.735025</v>
+        <v>2090208920.21072</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1558084822114382</v>
+        <v>0.131335939451225</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03825610178946223</v>
+        <v>0.04574059932446431</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3146632098.619662</v>
+        <v>3475153514.52938</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1244987291819004</v>
+        <v>0.1084168203517793</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02861549205541839</v>
+        <v>0.03508624265383689</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1879007528.440872</v>
+        <v>2989653127.219738</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1887090603158181</v>
+        <v>0.1731369823251407</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01638706485964994</v>
+        <v>0.01802971029550585</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1462050984.594581</v>
+        <v>1641324856.947526</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07850700229417099</v>
+        <v>0.0937777115600594</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03272350988922812</v>
+        <v>0.02435047416433539</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1824102324.774123</v>
+        <v>1880606130.519386</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1473183306867942</v>
+        <v>0.1825390157669975</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05478370178934556</v>
+        <v>0.05241738477871902</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4712826484.333427</v>
+        <v>5217480690.014524</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1781603842385243</v>
+        <v>0.1402081997382109</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05293621590505915</v>
+        <v>0.0586855587124421</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5084804886.560349</v>
+        <v>4518785668.045844</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1601752628202719</v>
+        <v>0.1675601021109852</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03592592000044861</v>
+        <v>0.04765047226108476</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3686758544.080765</v>
+        <v>2948929963.93645</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06648445160777645</v>
+        <v>0.07382260928786963</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02421039962192683</v>
+        <v>0.02461325880547408</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1265928558.560366</v>
+        <v>1487826458.373113</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1612580974472743</v>
+        <v>0.1332825713085422</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03330144909470734</v>
+        <v>0.0314143963970915</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4189516271.241353</v>
+        <v>2954628895.870191</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1109264226201393</v>
+        <v>0.1093432625087394</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03554676306314296</v>
+        <v>0.04364125519274319</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>934252164.7546042</v>
+        <v>1161087004.05978</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1184307405818019</v>
+        <v>0.1888642465097467</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04000149677411329</v>
+        <v>0.04369566515977399</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4100275553.88486</v>
+        <v>4050899705.78457</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1182818039797093</v>
+        <v>0.1082026290112276</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04561486449565622</v>
+        <v>0.04851668318573331</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3474374201.5235</v>
+        <v>3097664855.31122</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1595442736454755</v>
+        <v>0.1259093736588233</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02503332073916804</v>
+        <v>0.02336220889251502</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4652030052.232121</v>
+        <v>4201646044.685337</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1157580581331743</v>
+        <v>0.1662648365581431</v>
       </c>
       <c r="G54" t="n">
-        <v>0.051973580759968</v>
+        <v>0.05243797875300259</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3492706365.693295</v>
+        <v>3284480662.180031</v>
       </c>
       <c r="F55" t="n">
-        <v>0.188333908376283</v>
+        <v>0.1917348775211964</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03169804038434251</v>
+        <v>0.02145697198447707</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1192288492.615487</v>
+        <v>1767521725.019105</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1500330007951557</v>
+        <v>0.1088892755700654</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05765079852519928</v>
+        <v>0.05781384892866047</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3336922994.018218</v>
+        <v>3840833546.535615</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1166828595690095</v>
+        <v>0.1290020008667973</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02676176439469984</v>
+        <v>0.02618839883934629</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1421680433.97492</v>
+        <v>1255779188.61934</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1426459319136227</v>
+        <v>0.1921550112888954</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0250222529065111</v>
+        <v>0.03083630760537966</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3671863608.848248</v>
+        <v>3775448980.806355</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09348293111526414</v>
+        <v>0.1230542403979958</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04184694018990388</v>
+        <v>0.03116396368406523</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2368999148.803252</v>
+        <v>3083803548.938806</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1899588437159162</v>
+        <v>0.1269384023760637</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03191802336690718</v>
+        <v>0.02780416256262415</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2179076913.912828</v>
+        <v>2156356726.650846</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1774142432472793</v>
+        <v>0.1168349229981883</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03210665124904139</v>
+        <v>0.02116158092675571</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1304461435.203136</v>
+        <v>1732311604.19113</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1477405204245058</v>
+        <v>0.182408310051212</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03139657619094758</v>
+        <v>0.03173449150397509</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5302019650.826502</v>
+        <v>3673357149.931163</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06615491293384419</v>
+        <v>0.08380889352414043</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03812076630795253</v>
+        <v>0.0438983237377368</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5014593102.860929</v>
+        <v>3643638793.857546</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1809539027637947</v>
+        <v>0.1600756279677357</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02432139359092686</v>
+        <v>0.02594560071220334</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5456967454.140128</v>
+        <v>5062842150.536671</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1351526401112119</v>
+        <v>0.1528514794687657</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0298830411774807</v>
+        <v>0.02045800171765647</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4126838292.374593</v>
+        <v>5637407495.831977</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1291721571859824</v>
+        <v>0.1037055912423438</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04332932846639936</v>
+        <v>0.04069371115941137</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2179758140.907376</v>
+        <v>3291261036.969139</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07406446091070633</v>
+        <v>0.08573475445406752</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04217072772709175</v>
+        <v>0.04549618875240326</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3960396724.101244</v>
+        <v>5680337158.257947</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1231775178198589</v>
+        <v>0.1314339567477747</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04172407240145987</v>
+        <v>0.05052484584569542</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1848286737.831131</v>
+        <v>1724611383.353292</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1327237077188731</v>
+        <v>0.1552440512924556</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04052358993058047</v>
+        <v>0.05493089929627547</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2890295512.723437</v>
+        <v>2712778041.955014</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08108301998214433</v>
+        <v>0.08167450477863271</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04094603001124926</v>
+        <v>0.03682255955093165</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5495399021.182474</v>
+        <v>3907469881.631848</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1433587086110047</v>
+        <v>0.1841811735921672</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0282652118282375</v>
+        <v>0.02155854779230414</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1731739784.926894</v>
+        <v>1596357117.049333</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08551494428504061</v>
+        <v>0.09790728864609723</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05062565951536695</v>
+        <v>0.03802080594101536</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3342450207.999217</v>
+        <v>2198855394.181298</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06976446779681666</v>
+        <v>0.09674969837035446</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05231718178541855</v>
+        <v>0.04470212845899263</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3617593292.424855</v>
+        <v>3564716160.718355</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1654974466407045</v>
+        <v>0.1528298439913719</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03491729148645581</v>
+        <v>0.03021309094044637</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1640959164.634866</v>
+        <v>1861708936.152108</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1254595327477634</v>
+        <v>0.1637867208108373</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02717795914812247</v>
+        <v>0.028163849529686</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4809108474.557062</v>
+        <v>3418201602.971055</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1077374749719345</v>
+        <v>0.1113510633903508</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02585442699517508</v>
+        <v>0.03023115262050162</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2012773104.483043</v>
+        <v>1453100742.896565</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1362989138889424</v>
+        <v>0.1372575792325003</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02125863726377787</v>
+        <v>0.02150730081973695</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4071816192.989722</v>
+        <v>3107858109.022208</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08779295248970199</v>
+        <v>0.123335711333417</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04886396664435752</v>
+        <v>0.05131889044192076</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1207248797.101583</v>
+        <v>1494031554.304164</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1644696223888595</v>
+        <v>0.1725951344870356</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02737543576372946</v>
+        <v>0.0317788201528232</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3794213266.96613</v>
+        <v>4462686091.658693</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1075029124634012</v>
+        <v>0.06934604561052156</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02966307164636438</v>
+        <v>0.03566798591942388</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4979191603.585553</v>
+        <v>5111494202.203351</v>
       </c>
       <c r="F81" t="n">
-        <v>0.104880940286255</v>
+        <v>0.1132914800536853</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02292984653275439</v>
+        <v>0.02257091037393793</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3943125035.831043</v>
+        <v>5673634806.219378</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1315551277850085</v>
+        <v>0.1797266165529568</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0254220216515516</v>
+        <v>0.01870426216594956</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2158260268.652764</v>
+        <v>2470006377.600278</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1493873714756625</v>
+        <v>0.1013063860736406</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03792408851330439</v>
+        <v>0.03377831039759029</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2248441858.874543</v>
+        <v>2124115230.974239</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1038587469846329</v>
+        <v>0.1058085343175483</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03850332082554885</v>
+        <v>0.03626108469076633</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3684316046.996878</v>
+        <v>2489706319.648311</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1264120051011572</v>
+        <v>0.1342003636903301</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05465360888813262</v>
+        <v>0.05458546083029151</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2722836979.844154</v>
+        <v>1823550295.985914</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1463741710721302</v>
+        <v>0.1406587901638863</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02603467515761097</v>
+        <v>0.01689232986106197</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1384048006.029475</v>
+        <v>960108071.8897812</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1211533152794032</v>
+        <v>0.1530777890481561</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04041974219941585</v>
+        <v>0.04231506820706143</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2699929204.388801</v>
+        <v>2513532291.857725</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1154734732301145</v>
+        <v>0.1767093012985127</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03942792790359376</v>
+        <v>0.04002901943414662</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2631356143.182305</v>
+        <v>2766834136.980925</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1235795981640189</v>
+        <v>0.1506868736898421</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03750249244229086</v>
+        <v>0.03726567816365198</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2116620179.097522</v>
+        <v>1758590134.157253</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1180311490880725</v>
+        <v>0.1125853676632252</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04066386154605589</v>
+        <v>0.05100839732407547</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1996305536.192122</v>
+        <v>2045620073.925439</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1239570108190567</v>
+        <v>0.1687246523533733</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05788128913467825</v>
+        <v>0.04647014900408604</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2890421607.377696</v>
+        <v>2757633889.599799</v>
       </c>
       <c r="F92" t="n">
-        <v>0.10547665818907</v>
+        <v>0.1093015089685681</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03785691509062707</v>
+        <v>0.04756671685799686</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3034898308.870432</v>
+        <v>4523842578.061241</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1320054699165994</v>
+        <v>0.1242869490144144</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05454812548920897</v>
+        <v>0.03790911355960478</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2401697864.607015</v>
+        <v>1810592878.195098</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1524430084522846</v>
+        <v>0.1071182546941375</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03910186038817456</v>
+        <v>0.02995936316564295</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2701157564.66682</v>
+        <v>2867676169.588739</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1013214827135701</v>
+        <v>0.09601734394879959</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04821799238122338</v>
+        <v>0.04336817292133182</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2244887140.352421</v>
+        <v>2099358295.097582</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0916636791291081</v>
+        <v>0.1004471246015791</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02874187153892733</v>
+        <v>0.03506209150300167</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3650972613.584939</v>
+        <v>5177748859.278574</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1154954315556105</v>
+        <v>0.1540439335315203</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02026272384114757</v>
+        <v>0.02501512453862393</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2468930163.515058</v>
+        <v>3016504016.204335</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09818810767487145</v>
+        <v>0.1248371967666622</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02155892560636043</v>
+        <v>0.02319559928494937</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3012724782.698972</v>
+        <v>3365617134.878258</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1335827924650852</v>
+        <v>0.09935597492782551</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02863857744756513</v>
+        <v>0.02709382013666263</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2909520103.360071</v>
+        <v>4253020522.278549</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1566531232855183</v>
+        <v>0.1195952368507105</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02580687541334447</v>
+        <v>0.02550383088937371</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2805717983.992018</v>
+        <v>2760739450.804732</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2110030027486536</v>
+        <v>0.1460893969692169</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04768423182579158</v>
+        <v>0.03813456020763367</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_120.xlsx
+++ b/output/fit_clients/fit_round_120.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2190162140.876245</v>
+        <v>2258412629.39918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0850737876598185</v>
+        <v>0.0970381700404105</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03740509694059806</v>
+        <v>0.03461078928426721</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2558001710.092024</v>
+        <v>1947930449.850157</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1465021628373787</v>
+        <v>0.1462336538239876</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03426112631835054</v>
+        <v>0.04686779704029837</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4250552540.961724</v>
+        <v>5148228111.686154</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1537152138060955</v>
+        <v>0.1427274837604343</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02303860030463359</v>
+        <v>0.037136122884036</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>72</v>
+      </c>
+      <c r="J4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3525890007.730562</v>
+        <v>4007058096.677939</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1080143298624401</v>
+        <v>0.07818811955969021</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03421474865157177</v>
+        <v>0.04554019323883057</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>120</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1965073281.599017</v>
+        <v>1899548291.250883</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0948947389995573</v>
+        <v>0.1165633981698128</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03997012831268273</v>
+        <v>0.04288583385121205</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2387198684.763818</v>
+        <v>3073096425.034906</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07435448970106426</v>
+        <v>0.1008998116005486</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03330181617004003</v>
+        <v>0.03319145098556615</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2674267930.020698</v>
+        <v>3017178884.666155</v>
       </c>
       <c r="F8" t="n">
-        <v>0.186248144272707</v>
+        <v>0.2044382960031804</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02244488415706546</v>
+        <v>0.03123836983156295</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>34</v>
+      </c>
+      <c r="J8" t="n">
+        <v>117</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2206429127.623186</v>
+        <v>1594528968.531974</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1268762934093774</v>
+        <v>0.1658258712072982</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03710194177780593</v>
+        <v>0.02501171566704207</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4861348756.078747</v>
+        <v>4946539745.522124</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1754491343286761</v>
+        <v>0.1699295500597923</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05256925100852818</v>
+        <v>0.03639465952192764</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>109</v>
+      </c>
+      <c r="J10" t="n">
+        <v>120</v>
+      </c>
+      <c r="K10" t="n">
+        <v>166.0654576026253</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +818,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3431368390.834036</v>
+        <v>4285948372.627266</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1366842913801457</v>
+        <v>0.1692376674893168</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04986207047145199</v>
+        <v>0.0410200067713497</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" t="n">
+        <v>120</v>
+      </c>
+      <c r="K11" t="n">
+        <v>164.5462464360094</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3276796754.977155</v>
+        <v>2997916567.955417</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1427706240611777</v>
+        <v>0.1517145767097274</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03782994665053212</v>
+        <v>0.05186183601608692</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4296713491.871525</v>
+        <v>4134750000.410282</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09857688899035863</v>
+        <v>0.08446153449267495</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01917220305093736</v>
+        <v>0.02058843128811931</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>58</v>
+      </c>
+      <c r="J13" t="n">
+        <v>120</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2774755945.207374</v>
+        <v>3095317650.660382</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1717560318483304</v>
+        <v>0.1239506580774078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02704261227011088</v>
+        <v>0.02783937176558264</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1258084222.314328</v>
+        <v>1423308621.447991</v>
       </c>
       <c r="F15" t="n">
-        <v>0.102343711801383</v>
+        <v>0.08845724206689014</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03579447345253761</v>
+        <v>0.03001181076902719</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2828603047.56029</v>
+        <v>2498124130.83691</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07773862908131064</v>
+        <v>0.1063605867579933</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04241685060839545</v>
+        <v>0.03889363284539368</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4458783464.650929</v>
+        <v>4198954981.992154</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1667052524853377</v>
+        <v>0.1058841170653405</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04765425815135163</v>
+        <v>0.04668875943615423</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>58</v>
+      </c>
+      <c r="J17" t="n">
+        <v>119</v>
+      </c>
+      <c r="K17" t="n">
+        <v>133.9907480143627</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3531826773.289766</v>
+        <v>3319016866.1375</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1553034183793642</v>
+        <v>0.1793997716373677</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0244132858659993</v>
+        <v>0.03307022275696191</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>32</v>
+      </c>
+      <c r="J18" t="n">
+        <v>119</v>
+      </c>
+      <c r="K18" t="n">
+        <v>90.36871897396459</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>898302433.4480882</v>
+        <v>1146605441.674489</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1863902614458789</v>
+        <v>0.1434994561832239</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0258221308972544</v>
+        <v>0.01928455408473746</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2048753588.304284</v>
+        <v>2732893387.274076</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1394524361675281</v>
+        <v>0.1128792436642048</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02790832303999434</v>
+        <v>0.0212305735842808</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2025508125.381045</v>
+        <v>2513058156.573276</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09253881417274484</v>
+        <v>0.06909072939559258</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04271540739302071</v>
+        <v>0.040246654855418</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2964125018.777183</v>
+        <v>3486501710.524053</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09529908534752057</v>
+        <v>0.1104998016610495</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04009299805317233</v>
+        <v>0.0439337010797076</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>31</v>
+      </c>
+      <c r="J22" t="n">
+        <v>120</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1126235670.9952</v>
+        <v>1401820471.537394</v>
       </c>
       <c r="F23" t="n">
-        <v>0.142977994907783</v>
+        <v>0.1552695662580919</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05338055263499237</v>
+        <v>0.04937810927463205</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3204620174.931652</v>
+        <v>2721381487.541843</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1198267926997015</v>
+        <v>0.131815611802548</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03518645396521744</v>
+        <v>0.02595298271369286</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>36</v>
+      </c>
+      <c r="J24" t="n">
+        <v>118</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1432690539.633035</v>
+        <v>1451567558.520274</v>
       </c>
       <c r="F25" t="n">
-        <v>0.116184405202546</v>
+        <v>0.09612184519523735</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02863145809136141</v>
+        <v>0.03033100207064229</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1414571789.760766</v>
+        <v>915937818.4033147</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1146170937849641</v>
+        <v>0.07844380876261665</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02528832642280109</v>
+        <v>0.03308266307815106</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4007748739.462443</v>
+        <v>4457292394.304153</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1576838667440709</v>
+        <v>0.138275225628695</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01722956033901823</v>
+        <v>0.02612362617651454</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>47</v>
+      </c>
+      <c r="J27" t="n">
+        <v>120</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3377190155.405297</v>
+        <v>2648422189.085433</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1116541691522358</v>
+        <v>0.1419265655154272</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0497487174981296</v>
+        <v>0.03831579789245813</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>117</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4145230821.984106</v>
+        <v>5653425215.44507</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1104784247100737</v>
+        <v>0.1053685098263826</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04282959214594198</v>
+        <v>0.03403839579844977</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>111</v>
+      </c>
+      <c r="J29" t="n">
+        <v>120</v>
+      </c>
+      <c r="K29" t="n">
+        <v>178.4309394330843</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1975292349.73911</v>
+        <v>1901119772.989148</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1038228836447225</v>
+        <v>0.1317268629219014</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03169313006430171</v>
+        <v>0.02754808052035689</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1497670849.045753</v>
+        <v>1440262669.402292</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06928594058141671</v>
+        <v>0.1073889415572477</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05142296146008696</v>
+        <v>0.04991439893731314</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1760032825.60305</v>
+        <v>1346288711.754771</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08288837415803474</v>
+        <v>0.09628510045582583</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03688866255807367</v>
+        <v>0.03547465090169864</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2257103616.291221</v>
+        <v>2807985109.244795</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1797804578448948</v>
+        <v>0.1419675727719509</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05619129339708082</v>
+        <v>0.04941685036561215</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1396100357.298058</v>
+        <v>1485465707.306456</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07378136632206438</v>
+        <v>0.1153084966113556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02425563019567148</v>
+        <v>0.02310450307670704</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1322348223.97984</v>
+        <v>981003786.5049143</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09290815909273019</v>
+        <v>0.07768088223759095</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03998950443761328</v>
+        <v>0.03949628550881992</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3256556680.208027</v>
+        <v>2181235182.231296</v>
       </c>
       <c r="F36" t="n">
-        <v>0.124518211315114</v>
+        <v>0.1154020239877864</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01947519594792978</v>
+        <v>0.02425569434759575</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2183495246.9062</v>
+        <v>1950392815.077137</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1010265456185777</v>
+        <v>0.1044945525658178</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03248387933924033</v>
+        <v>0.02961329865346884</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1831646227.37364</v>
+        <v>1723990150.162197</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07597552052310975</v>
+        <v>0.08416824723105133</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03941015643123977</v>
+        <v>0.03157973776911777</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1762059582.791392</v>
+        <v>1999163140.508716</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1758820449059754</v>
+        <v>0.1355358951572396</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03217353304199184</v>
+        <v>0.02115965779673248</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1503212559.65282</v>
+        <v>1382383250.949003</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1367651746592909</v>
+        <v>0.1320429812384835</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05371275025398516</v>
+        <v>0.03957841501030291</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2090208920.21072</v>
+        <v>2101943086.004986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.131335939451225</v>
+        <v>0.1458983248330645</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04574059932446431</v>
+        <v>0.04495216449567278</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3475153514.52938</v>
+        <v>3339880131.109132</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1084168203517793</v>
+        <v>0.09238510572299051</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03508624265383689</v>
+        <v>0.0304853637622355</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>42</v>
+      </c>
+      <c r="J42" t="n">
+        <v>120</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2989653127.219738</v>
+        <v>2260279765.455234</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1731369823251407</v>
+        <v>0.1435293953297734</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01802971029550585</v>
+        <v>0.01776257124385566</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1641324856.947526</v>
+        <v>1795676188.579671</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0937777115600594</v>
+        <v>0.06484992307812977</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02435047416433539</v>
+        <v>0.03112332160331443</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1880606130.519386</v>
+        <v>2311814815.855578</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1825390157669975</v>
+        <v>0.1438297990485417</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05241738477871902</v>
+        <v>0.05316976093486146</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5217480690.014524</v>
+        <v>4370965338.905261</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1402081997382109</v>
+        <v>0.1116451250739818</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0586855587124421</v>
+        <v>0.05719425056004532</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>69</v>
+      </c>
+      <c r="J46" t="n">
+        <v>120</v>
+      </c>
+      <c r="K46" t="n">
+        <v>153.3734166234341</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4518785668.045844</v>
+        <v>3248839323.819495</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1675601021109852</v>
+        <v>0.140079560834351</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04765047226108476</v>
+        <v>0.04473822897724929</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>53</v>
+      </c>
+      <c r="J47" t="n">
+        <v>118</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2948929963.93645</v>
+        <v>4516194604.798068</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07382260928786963</v>
+        <v>0.1018975359547624</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02461325880547408</v>
+        <v>0.03836934622086056</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>46</v>
+      </c>
+      <c r="J48" t="n">
+        <v>119</v>
+      </c>
+      <c r="K48" t="n">
+        <v>153.1590926407149</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1487826458.373113</v>
+        <v>1719770792.906682</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1332825713085422</v>
+        <v>0.1945687043293831</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0314143963970915</v>
+        <v>0.03150951288811176</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2954628895.870191</v>
+        <v>3722670661.642656</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1093432625087394</v>
+        <v>0.1599109543461275</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04364125519274319</v>
+        <v>0.04785796196167685</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>41</v>
+      </c>
+      <c r="J50" t="n">
+        <v>120</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1161087004.05978</v>
+        <v>1129646146.407532</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1888642465097467</v>
+        <v>0.1670363830007103</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04369566515977399</v>
+        <v>0.04450221312181508</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2265,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4050899705.78457</v>
+        <v>5204268766.611773</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1082026290112276</v>
+        <v>0.08740926077020424</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04851668318573331</v>
+        <v>0.03932506602472335</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>93</v>
+      </c>
+      <c r="J52" t="n">
+        <v>120</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3097664855.31122</v>
+        <v>3066044744.550287</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1259093736588233</v>
+        <v>0.1909482599544581</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02336220889251502</v>
+        <v>0.03429082575044574</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>13</v>
+      </c>
+      <c r="J53" t="n">
+        <v>115</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4201646044.685337</v>
+        <v>3341712724.994541</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1662648365581431</v>
+        <v>0.1276678693448266</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05243797875300259</v>
+        <v>0.04400827068259876</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>55</v>
+      </c>
+      <c r="J54" t="n">
+        <v>119</v>
+      </c>
+      <c r="K54" t="n">
+        <v>95.98356389788813</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3284480662.180031</v>
+        <v>4168951813.856483</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1917348775211964</v>
+        <v>0.1943166027055472</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02145697198447707</v>
+        <v>0.03209998700171021</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>55</v>
+      </c>
+      <c r="J55" t="n">
+        <v>119</v>
+      </c>
+      <c r="K55" t="n">
+        <v>137.4779705391928</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1767521725.019105</v>
+        <v>1533207549.378007</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1088892755700654</v>
+        <v>0.1249772024253304</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05781384892866047</v>
+        <v>0.04298129428144472</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2444,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3840833546.535615</v>
+        <v>3346467876.877282</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1290020008667973</v>
+        <v>0.1593161689896422</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02618839883934629</v>
+        <v>0.02212873324916144</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>47</v>
+      </c>
+      <c r="J57" t="n">
+        <v>119</v>
+      </c>
+      <c r="K57" t="n">
+        <v>90.51643533013329</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1255779188.61934</v>
+        <v>1883336766.816192</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1921550112888954</v>
+        <v>0.1327539777996067</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03083630760537966</v>
+        <v>0.02811468155922447</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3775448980.806355</v>
+        <v>4348603084.486929</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1230542403979958</v>
+        <v>0.08684688296202292</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03116396368406523</v>
+        <v>0.03878597018571849</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>58</v>
+      </c>
+      <c r="J59" t="n">
+        <v>120</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3083803548.938806</v>
+        <v>2568517215.028122</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1269384023760637</v>
+        <v>0.1515995892289347</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02780416256262415</v>
+        <v>0.03345074658937652</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>118</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2156356726.650846</v>
+        <v>2283530711.552125</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1168349229981883</v>
+        <v>0.1142897421287762</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02116158092675571</v>
+        <v>0.02755845959787303</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1732311604.19113</v>
+        <v>1388692280.493766</v>
       </c>
       <c r="F62" t="n">
-        <v>0.182408310051212</v>
+        <v>0.1534626771742545</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03173449150397509</v>
+        <v>0.03279572468211737</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3673357149.931163</v>
+        <v>4020670882.694965</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08380889352414043</v>
+        <v>0.09938259703565691</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0438983237377368</v>
+        <v>0.03469214089231136</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>59</v>
+      </c>
+      <c r="J63" t="n">
+        <v>120</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3643638793.857546</v>
+        <v>4512682829.191672</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1600756279677357</v>
+        <v>0.1887540914677346</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02594560071220334</v>
+        <v>0.03481123355817323</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>59</v>
+      </c>
+      <c r="J64" t="n">
+        <v>120</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5062842150.536671</v>
+        <v>3628625766.438095</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1528514794687657</v>
+        <v>0.1248163775348092</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02045800171765647</v>
+        <v>0.02752637322127424</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>100</v>
+      </c>
+      <c r="J65" t="n">
+        <v>119</v>
+      </c>
+      <c r="K65" t="n">
+        <v>116.1654163693391</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2763,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5637407495.831977</v>
+        <v>4364406434.941541</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1037055912423438</v>
+        <v>0.1142569071959511</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04069371115941137</v>
+        <v>0.03541961118127168</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>59</v>
+      </c>
+      <c r="J66" t="n">
+        <v>119</v>
+      </c>
+      <c r="K66" t="n">
+        <v>141.2875041062686</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3291261036.969139</v>
+        <v>2480637791.253778</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08573475445406752</v>
+        <v>0.06605175405912404</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04549618875240326</v>
+        <v>0.03722745571399733</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5680337158.257947</v>
+        <v>5984727641.729078</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1314339567477747</v>
+        <v>0.1198273448117628</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05052484584569542</v>
+        <v>0.03204123326975133</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>60</v>
+      </c>
+      <c r="J68" t="n">
+        <v>119</v>
+      </c>
+      <c r="K68" t="n">
+        <v>141.3602762008616</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1724611383.353292</v>
+        <v>1831209813.81101</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1552440512924556</v>
+        <v>0.1673293513762368</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05493089929627547</v>
+        <v>0.04588396278814199</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2712778041.955014</v>
+        <v>2794373412.970542</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08167450477863271</v>
+        <v>0.0975369352376125</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03682255955093165</v>
+        <v>0.03912954533017108</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3907469881.631848</v>
+        <v>5114036757.105204</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1841811735921672</v>
+        <v>0.1409957593070506</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02155854779230414</v>
+        <v>0.03260579517879227</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>97</v>
+      </c>
+      <c r="J71" t="n">
+        <v>120</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1596357117.049333</v>
+        <v>1565920395.596801</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09790728864609723</v>
+        <v>0.06902999579930778</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03802080594101536</v>
+        <v>0.0329993899204943</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2198855394.181298</v>
+        <v>2829154210.404671</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09674969837035446</v>
+        <v>0.0836830185395655</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04470212845899263</v>
+        <v>0.04869194585283588</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3564716160.718355</v>
+        <v>3668118835.809638</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1528298439913719</v>
+        <v>0.164205486808749</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03021309094044637</v>
+        <v>0.02784756328908333</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>40</v>
+      </c>
+      <c r="J74" t="n">
+        <v>120</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1861708936.152108</v>
+        <v>2017562548.340751</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1637867208108373</v>
+        <v>0.1058616517396202</v>
       </c>
       <c r="G75" t="n">
-        <v>0.028163849529686</v>
+        <v>0.02503806268728377</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3117,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3418201602.971055</v>
+        <v>4309095295.10511</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1113510633903508</v>
+        <v>0.1211011886215062</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03023115262050162</v>
+        <v>0.03303398962784559</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>56</v>
+      </c>
+      <c r="J76" t="n">
+        <v>119</v>
+      </c>
+      <c r="K76" t="n">
+        <v>122.6884861799446</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1453100742.896565</v>
+        <v>2161776736.345794</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1372575792325003</v>
+        <v>0.1542989312690034</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02150730081973695</v>
+        <v>0.03164493388500218</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3107858109.022208</v>
+        <v>3211824345.097516</v>
       </c>
       <c r="F78" t="n">
-        <v>0.123335711333417</v>
+        <v>0.1243986476854222</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05131889044192076</v>
+        <v>0.0450536550106698</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>60</v>
+      </c>
+      <c r="J78" t="n">
+        <v>119</v>
+      </c>
+      <c r="K78" t="n">
+        <v>91.65434072342781</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1494031554.304164</v>
+        <v>1888558061.548561</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1725951344870356</v>
+        <v>0.1291321331314817</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0317788201528232</v>
+        <v>0.03156518987227525</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4462686091.658693</v>
+        <v>3590549861.822208</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06934604561052156</v>
+        <v>0.07746053965597499</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03566798591942388</v>
+        <v>0.03865965716645017</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>58</v>
+      </c>
+      <c r="J80" t="n">
+        <v>119</v>
+      </c>
+      <c r="K80" t="n">
+        <v>82.91262807623988</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5111494202.203351</v>
+        <v>4483610331.104941</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1132914800536853</v>
+        <v>0.1169808526522502</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02257091037393793</v>
+        <v>0.02079356732532326</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>54</v>
+      </c>
+      <c r="J81" t="n">
+        <v>119</v>
+      </c>
+      <c r="K81" t="n">
+        <v>129.7394639663627</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5673634806.219378</v>
+        <v>4968823424.125436</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1797266165529568</v>
+        <v>0.1649668817773259</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01870426216594956</v>
+        <v>0.02903408053272394</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>83</v>
+      </c>
+      <c r="J82" t="n">
+        <v>120</v>
+      </c>
+      <c r="K82" t="n">
+        <v>160.1451456241971</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2470006377.600278</v>
+        <v>2252394734.31442</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1013063860736406</v>
+        <v>0.1179924637959816</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03377831039759029</v>
+        <v>0.03873361281690801</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2124115230.974239</v>
+        <v>1576409492.102717</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1058085343175483</v>
+        <v>0.07628273869612447</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03626108469076633</v>
+        <v>0.05151319997217847</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2489706319.648311</v>
+        <v>2702549180.032313</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1342003636903301</v>
+        <v>0.1316014760993727</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05458546083029151</v>
+        <v>0.05184100175827677</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1823550295.985914</v>
+        <v>2557480174.44043</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1406587901638863</v>
+        <v>0.1099504051321982</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01689232986106197</v>
+        <v>0.02044590924600765</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>960108071.8897812</v>
+        <v>1275693968.622627</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1530777890481561</v>
+        <v>0.1673504714614197</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04231506820706143</v>
+        <v>0.0430607826833164</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2513532291.857725</v>
+        <v>2440132161.564743</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1767093012985127</v>
+        <v>0.1327391486113082</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04002901943414662</v>
+        <v>0.02777834108091671</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2766834136.980925</v>
+        <v>3179706488.511954</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1506868736898421</v>
+        <v>0.1021672827577875</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03726567816365198</v>
+        <v>0.02946684615817987</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1758590134.157253</v>
+        <v>1347419062.807692</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1125853676632252</v>
+        <v>0.1177246838670917</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05100839732407547</v>
+        <v>0.03979798115961588</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2045620073.925439</v>
+        <v>1944469601.030501</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1687246523533733</v>
+        <v>0.1655258879447296</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04647014900408604</v>
+        <v>0.04096287987082865</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2757633889.599799</v>
+        <v>2484581113.338405</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1093015089685681</v>
+        <v>0.07081868079415514</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04756671685799686</v>
+        <v>0.02964463941329811</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4523842578.061241</v>
+        <v>3495400937.570575</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1242869490144144</v>
+        <v>0.1313712091234374</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03790911355960478</v>
+        <v>0.04659679752663071</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>55</v>
+      </c>
+      <c r="J93" t="n">
+        <v>119</v>
+      </c>
+      <c r="K93" t="n">
+        <v>97.27802456975688</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1810592878.195098</v>
+        <v>2303238693.601336</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1071182546941375</v>
+        <v>0.1027378573895572</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02995936316564295</v>
+        <v>0.04198856678756956</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2867676169.588739</v>
+        <v>2572411278.125066</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09601734394879959</v>
+        <v>0.1211101076895654</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04336817292133182</v>
+        <v>0.05258816338088951</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2099358295.097582</v>
+        <v>1572408645.721542</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1004471246015791</v>
+        <v>0.1022729900033099</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03506209150300167</v>
+        <v>0.03058021398254668</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5177748859.278574</v>
+        <v>5084324025.076164</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1540439335315203</v>
+        <v>0.1189256625974919</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02501512453862393</v>
+        <v>0.02854743770175386</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>57</v>
+      </c>
+      <c r="J97" t="n">
+        <v>120</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3016504016.204335</v>
+        <v>3022657758.161952</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1248371967666622</v>
+        <v>0.1048401868201306</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02319559928494937</v>
+        <v>0.03239936947535096</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>28</v>
+      </c>
+      <c r="J98" t="n">
+        <v>116</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3365617134.878258</v>
+        <v>2233009141.524888</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09935597492782551</v>
+        <v>0.1103024559287648</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02709382013666263</v>
+        <v>0.02241195591182664</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3969,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4253020522.278549</v>
+        <v>4760365933.249827</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1195952368507105</v>
+        <v>0.1792497659571022</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02550383088937371</v>
+        <v>0.02552181871462144</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>49</v>
+      </c>
+      <c r="J100" t="n">
+        <v>120</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2760739450.804732</v>
+        <v>3073803790.882311</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1460893969692169</v>
+        <v>0.2123851870822477</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03813456020763367</v>
+        <v>0.0524853823285421</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="n">
+        <v>76.72328860389989</v>
       </c>
     </row>
   </sheetData>
